--- a/data/trans_orig/Q33-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.470549182750356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.157939186361242</v>
+        <v>7.157939186361244</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.165479421035469</v>
@@ -681,7 +681,7 @@
         <v>7.145857332702357</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.946553368872156</v>
+        <v>6.946553368872154</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.268570018245059</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.310630455251386</v>
+        <v>7.330996638090086</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.281700909568947</v>
+        <v>7.281517364537622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.391039612315033</v>
+        <v>7.402718591510095</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.042440674993919</v>
+        <v>7.036867552970793</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.070551870984641</v>
+        <v>7.072603479860519</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.972744632924074</v>
+        <v>6.974924114563342</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.072169920568897</v>
+        <v>7.075977939268632</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.848121244708674</v>
+        <v>6.849038020197683</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.198427100331232</v>
+        <v>7.196679702589344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.149278593441569</v>
+        <v>7.14857567307255</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.249679192418973</v>
+        <v>7.243679044251805</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.964488260845399</v>
+        <v>6.958286613833585</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.527479689428493</v>
+        <v>7.5366924337611</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.468091880189831</v>
+        <v>7.464601430407225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.541002104473211</v>
+        <v>7.535164710635212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.278677652383664</v>
+        <v>7.270581324486895</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.26704597674158</v>
+        <v>7.256523727948072</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.144266848963142</v>
+        <v>7.158448593628197</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.222664260128528</v>
+        <v>7.218768296107333</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.051877671628808</v>
+        <v>7.050899183749998</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.3383564770504</v>
+        <v>7.333813942194898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.279194394710797</v>
+        <v>7.277811760783888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.352596954686205</v>
+        <v>7.354394360523344</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.112154879959036</v>
+        <v>7.112228819945648</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>7.277096528114155</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.112664422277114</v>
+        <v>7.112664422277115</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.472979568116779</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.484346375646766</v>
+        <v>7.481040244111876</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.299155887226019</v>
+        <v>7.297106139391357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.35625696101283</v>
+        <v>7.359079766773819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.203669764134194</v>
+        <v>7.207919651541356</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.316287494308316</v>
+        <v>7.320204666153978</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.12643176469351</v>
+        <v>7.126671392149984</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.200867711815443</v>
+        <v>7.200574072436272</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.049852507625204</v>
+        <v>7.043310458547518</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.418598149422663</v>
+        <v>7.42002999765312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.226343110239549</v>
+        <v>7.228824807403103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.294788316490059</v>
+        <v>7.30083837489423</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.140477611100063</v>
+        <v>7.141562367526842</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.624843305922909</v>
+        <v>7.620796781060801</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.4690747207156</v>
+        <v>7.451661486107229</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.508351756149479</v>
+        <v>7.50917947745746</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.347826282868302</v>
+        <v>7.351824903899026</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.464227596215157</v>
+        <v>7.466152621785267</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.289274223454818</v>
+        <v>7.282780487453322</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.352175555490025</v>
+        <v>7.363107764296331</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.183171103411606</v>
+        <v>7.180209225691682</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.521558927736097</v>
+        <v>7.523292158864627</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.337685731803309</v>
+        <v>7.343339695081542</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.407477589735523</v>
+        <v>7.411183937866651</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.241819709379437</v>
+        <v>7.239677594847863</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.531089801485799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.195917464353555</v>
+        <v>7.195917464353556</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.520630496602022</v>
@@ -953,7 +953,7 @@
         <v>7.329766806403269</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.115058244450846</v>
+        <v>7.115058244450847</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.563075744772953</v>
@@ -965,7 +965,7 @@
         <v>7.433964464287369</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>7.155546354521951</v>
+        <v>7.155546354521952</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.543602232210151</v>
+        <v>7.542633139263586</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.350663957638849</v>
+        <v>7.349881888647726</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.458980576182919</v>
+        <v>7.4477421345115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.119802033454175</v>
+        <v>7.122284031254391</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.456552861507091</v>
+        <v>7.458259393133141</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.134042574314762</v>
+        <v>7.140640933209387</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.243940281814385</v>
+        <v>7.242983006487902</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.055127609339986</v>
+        <v>7.059526702611193</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.520874431492024</v>
+        <v>7.520945180659657</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.267120652780912</v>
+        <v>7.274217961747339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.375601815187266</v>
+        <v>7.373845841366166</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.106283733883185</v>
+        <v>7.108289679202055</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.654704753197623</v>
+        <v>7.660861979067175</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.513461068111885</v>
+        <v>7.515516435135995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.62050217282103</v>
+        <v>7.60813530999393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.263842979404582</v>
+        <v>7.265072031380956</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.586865252330024</v>
+        <v>7.583166173549388</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.312901439409734</v>
+        <v>7.306731857024226</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.416374749143843</v>
+        <v>7.401801367273682</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.177314215638161</v>
+        <v>7.178800610840346</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.606903944769457</v>
+        <v>7.606580825641356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.386603147824588</v>
+        <v>7.386163810731228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.495618960591202</v>
+        <v>7.493317765411403</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.202536954540303</v>
+        <v>7.208102395186416</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.444747074660368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.052132324251868</v>
+        <v>7.052132324251867</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.651539728186734</v>
@@ -1089,7 +1089,7 @@
         <v>7.350462925630333</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>6.951161233580319</v>
+        <v>6.951161233580318</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>7.570375816422276</v>
@@ -1101,7 +1101,7 @@
         <v>7.39847732279785</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.003685708948061</v>
+        <v>7.003685708948059</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.387234308918174</v>
+        <v>7.377074221397289</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.298265393371037</v>
+        <v>7.29410085392831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.313485735492772</v>
+        <v>7.329603516465735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.98071215664287</v>
+        <v>6.981384195966951</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.532643809157616</v>
+        <v>7.537315656817046</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.239952892405386</v>
+        <v>7.246207750429893</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.226772745617007</v>
+        <v>7.227132761699941</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.880366384968471</v>
+        <v>6.879169648453501</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.493658100709347</v>
+        <v>7.491652005625023</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.301409768793303</v>
+        <v>7.302314889457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.307128470815135</v>
+        <v>7.314122135928641</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.951745311070768</v>
+        <v>6.954984650608712</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.60987588956982</v>
+        <v>7.602917128669156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.536776044859701</v>
+        <v>7.522440031231485</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.567276045366344</v>
+        <v>7.571922949380105</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.122897750452171</v>
+        <v>7.127661878912811</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.77468604997726</v>
+        <v>7.780078261991427</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.469614075999009</v>
+        <v>7.493169068041728</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.482605207663401</v>
+        <v>7.466042750740803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.022947374789897</v>
+        <v>7.024093631284408</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.650200388944776</v>
+        <v>7.651259873223172</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.463573671939762</v>
+        <v>7.468627672266297</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.478039494869796</v>
+        <v>7.488135014167466</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.056205024792948</v>
+        <v>7.054598465601368</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>7.251908158912238</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>7.045154695217872</v>
+        <v>7.045154695217873</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>7.466407286484356</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.503152701397547</v>
+        <v>7.501170599286771</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.345994069769787</v>
+        <v>7.348269656019838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.428995364296074</v>
+        <v>7.431840483095734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.130139196788025</v>
+        <v>7.132191450139224</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.350752730298275</v>
+        <v>7.353458860892709</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.138316566303035</v>
+        <v>7.138595503259683</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.209103497589868</v>
+        <v>7.204064410612498</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.011755165163731</v>
+        <v>7.009575068723646</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.435482223216337</v>
+        <v>7.435587859776984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.2519649445737</v>
+        <v>7.253698692772605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.32696490845063</v>
+        <v>7.327957001373803</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>7.08005143368973</v>
+        <v>7.07869614401837</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.579843937870395</v>
+        <v>7.584806294786773</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.43769989895477</v>
+        <v>7.442430219800964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.512613478606231</v>
+        <v>7.511746335530106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.209782208520189</v>
+        <v>7.215238451203578</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.435268695728544</v>
+        <v>7.435364643491072</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.227611235890018</v>
+        <v>7.225047994028744</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.297213592367177</v>
+        <v>7.291213745582372</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.083145301316775</v>
+        <v>7.080635333824091</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.493860325719939</v>
+        <v>7.495089811806267</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.32013455960604</v>
+        <v>7.318196814326028</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.387368274897881</v>
+        <v>7.392490365923505</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.13411555780868</v>
+        <v>7.132538347158641</v>
       </c>
     </row>
     <row r="19">
